--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T11:10:21+00:00</t>
+    <t>2022-08-27T00:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1226,7 +1226,7 @@
     <t>DICOM tagに設定されているコードをデフォルトとするが、JJ1017Pの小部位コードの利用を許容する。</t>
   </si>
   <si>
-    <t>https://www.jsrt.or.jp/97mi/content/jj1017.html</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1249,6 +1249,9 @@
   </si>
   <si>
     <t>DICOM定義書の中で示される語句（コード）をデフォルトとするが、JJ1017Pの左右コードの利用を許容する。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
   </si>
   <si>
     <t>(0020,0060)</t>
@@ -6493,7 +6496,7 @@
         <v>384</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6532,7 +6535,7 @@
         <v>378</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6543,7 +6546,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6566,16 +6569,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6625,7 +6628,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6643,10 +6646,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6657,7 +6660,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6683,13 +6686,13 @@
         <v>197</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6739,7 +6742,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6760,7 +6763,7 @@
         <v>203</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6771,11 +6774,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6797,16 +6800,16 @@
         <v>314</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6855,7 +6858,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6870,13 +6873,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6887,7 +6890,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6999,7 +7002,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7113,7 +7116,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7229,7 +7232,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7255,14 +7258,14 @@
         <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7290,10 +7293,10 @@
         <v>172</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7311,7 +7314,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7343,7 +7346,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7366,16 +7369,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7425,7 +7428,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>87</v>
@@ -7443,21 +7446,21 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7483,13 +7486,13 @@
         <v>314</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7539,7 +7542,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7557,7 +7560,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7683,7 +7686,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7797,7 +7800,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7913,11 +7916,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7939,16 +7942,16 @@
         <v>334</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7961,7 +7964,7 @@
         <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>77</v>
@@ -7997,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8018,7 +8021,7 @@
         <v>339</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8029,11 +8032,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8055,13 +8058,13 @@
         <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8090,10 +8093,10 @@
         <v>172</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8111,7 +8114,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>87</v>
@@ -8129,10 +8132,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8143,11 +8146,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8169,13 +8172,13 @@
         <v>239</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8225,7 +8228,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8243,10 +8246,10 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8257,7 +8260,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8283,13 +8286,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8339,7 +8342,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8357,10 +8360,10 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
